--- a/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey.xlsx
+++ b/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le borough londonien de Haringey possède 240 ha de parcs et espaces verts. En 2015, 20 d'entre eux avaient reçu un Green Flag Award[1].  Jusqu'à leur dissolution en avril 2009, les parcs étaient surveillés par la Haringey Parks Constabulary.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le borough londonien de Haringey possède 240 ha de parcs et espaces verts. En 2015, 20 d'entre eux avaient reçu un Green Flag Award.  Jusqu'à leur dissolution en avril 2009, les parcs étaient surveillés par la Haringey Parks Constabulary.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des Parcs et espaces verts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Albert Road Recreation Ground
 Belmont Recreation Ground
@@ -539,16 +553,84 @@
 Stanley Road Open Space
 Stationers Park
 Wood Green Common
-Woodside Park
-Réserves naturelles locales
-Haringey Council gère trois réserves naturelles locales.
-Parkland Walk (gestion conjointe avec le Islington council[2]).
+Woodside Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des Parcs et espaces verts</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Réserves naturelles locales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Haringey Council gère trois réserves naturelles locales.
+Parkland Walk (gestion conjointe avec le Islington council).
 Queen's Wood
-Railway Fields
-Parcs non entretenus par le Haringey Council
-Highgate Wood géré par la Corporation of London.
-Marais de Tottenham géré par la Lee Valley Regional Park Authority (à laquelle contribue financièrement le Haringey Council)[3]).
-Alexandra Park qui est maintenu par Alexandra Palace[1].</t>
+Railway Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Haringey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des Parcs et espaces verts</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcs non entretenus par le Haringey Council</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Highgate Wood géré par la Corporation of London.
+Marais de Tottenham géré par la Lee Valley Regional Park Authority (à laquelle contribue financièrement le Haringey Council)).
+Alexandra Park qui est maintenu par Alexandra Palace.</t>
         </is>
       </c>
     </row>
